--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\Documents\GitHub\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6CD997-7802-494E-B7A1-0B93D77D923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554E3F7B-566F-4EBB-8F97-6A1F5BE65D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14730" yWindow="1680" windowWidth="13050" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -91,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +508,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\Documents\GitHub\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554E3F7B-566F-4EBB-8F97-6A1F5BE65D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC97D3-EFDF-4DF4-8B53-F17E0FB8BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="1680" windowWidth="13050" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="3750" windowWidth="13050" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,35 +116,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +445,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,87 +457,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>44492</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
